--- a/out/sales_data_2.xlsx
+++ b/out/sales_data_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,6 +400,21 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>mood</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>raise</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>City</t>
         </is>
       </c>
@@ -435,6 +450,21 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>young_female</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>Miami</t>
         </is>
       </c>
@@ -470,6 +500,21 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>mature_male</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Miami</t>
         </is>
       </c>
@@ -505,6 +550,21 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>young_male</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>LA</t>
         </is>
       </c>
@@ -540,6 +600,21 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>mature_female</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>New York</t>
         </is>
       </c>
@@ -575,6 +650,21 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>young_female</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>LA</t>
         </is>
       </c>
@@ -604,6 +694,16 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>New York</t>
         </is>
       </c>
@@ -639,6 +739,21 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>mature_female</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>Chicago</t>
         </is>
       </c>
@@ -671,6 +786,16 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>young_female</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Chicago</t>
         </is>
       </c>
@@ -706,6 +831,21 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>young_male</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>New York</t>
         </is>
       </c>
@@ -740,6 +880,21 @@
         <v>290</v>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>mature_male</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>LA</t>
         </is>
